--- a/regression-tests/src/test/java/com/hansencx/portal/datatest/PortalDataTest.xlsx
+++ b/regression-tests/src/test/java/com/hansencx/portal/datatest/PortalDataTest.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hansentech-my.sharepoint.com/personal/nhi_dinh_hansencx_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nhi.Dinh\GIT\solutions\regression-tests\src\test\java\com\hansencx\portal\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A824365-36B8-46BA-8735-F18EF0FA95D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5508"/>
   </bookViews>
   <sheets>
     <sheet name="EnrollmentNumber" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -72,13 +71,22 @@
   </si>
   <si>
     <t>in list</t>
+  </si>
+  <si>
+    <t>ExecutedTime</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,20 +430,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +456,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -463,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -477,7 +494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -491,7 +508,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -505,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>

--- a/regression-tests/src/test/java/com/hansencx/portal/datatest/PortalDataTest.xlsx
+++ b/regression-tests/src/test/java/com/hansencx/portal/datatest/PortalDataTest.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -71,15 +71,6 @@
   </si>
   <si>
     <t>in list</t>
-  </si>
-  <si>
-    <t>ExecutedTime</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Message</t>
   </si>
 </sst>
 </file>
@@ -431,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,7 +434,7 @@
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,17 +447,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -480,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -494,7 +476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -508,7 +490,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -522,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
